--- a/Sales Forecasting Models.xlsx
+++ b/Sales Forecasting Models.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kingshuk Roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4AA9B5-DE30-439B-BF34-D7E4E5CC0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE4A60-5831-44A9-B0FF-C81C873E51C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="1" r:id="rId1"/>
     <sheet name="Moving Average" sheetId="2" r:id="rId2"/>
     <sheet name="Exponential Smoothing" sheetId="3" r:id="rId3"/>
     <sheet name="Accuracy Metrics" sheetId="4" r:id="rId4"/>
-    <sheet name="Forecasting Formulas" sheetId="5" r:id="rId5"/>
-    <sheet name="Model Comparison" sheetId="6" r:id="rId6"/>
+    <sheet name="Perf_MAPE" sheetId="7" r:id="rId5"/>
+    <sheet name="Forecasting Formulas" sheetId="5" r:id="rId6"/>
+    <sheet name="Model Comparison" sheetId="6" r:id="rId7"/>
+    <sheet name="Wgt_Score" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="143">
   <si>
     <t>Month</t>
   </si>
@@ -436,6 +438,24 @@
   </si>
   <si>
     <t>=SQRT(AVERAGE((A:A - B:B)^2))</t>
+  </si>
+  <si>
+    <t>Weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Score </t>
+  </si>
+  <si>
+    <t>Consolidating metrics</t>
+  </si>
+  <si>
+    <t>= 0.50 × MAE + 0.30 × RMSE +  0.20 × MAPE</t>
+  </si>
+  <si>
+    <t>(= wt1 x score1 + wt2 x score2  + wt3 x score3)</t>
+  </si>
+  <si>
+    <t>Selection needs single-number, rationalized</t>
   </si>
 </sst>
 </file>
@@ -479,10 +499,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1448,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1483,255 +1506,275 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3A959B-FDD9-4D43-A621-4B8F99F072B0}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="27.7265625" customWidth="1"/>
     <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -1874,12 +1917,31 @@
         <v>97</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2070,4 +2132,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFD13CD-2D4E-4B18-ABEB-1624FCB6B521}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>2145.3000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>3470.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>3896.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4221.6000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>5458.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>8563.7000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>